--- a/reports/Automation_Report.xlsx
+++ b/reports/Automation_Report.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="2026-01-07" r:id="rId3" sheetId="1"/>
+    <sheet name="2026-01-12" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="40">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -90,6 +91,48 @@
   </si>
   <si>
     <t>TOTAL TIME EXECUTED : 98 sec</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_08</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_08 | Verify that uploaded track inventory appears in Admin and User App | "TD_UI_Zlaata_ADI_08"</t>
+  </si>
+  <si>
+    <t>gowthamraj</t>
+  </si>
+  <si>
+    <t>FEATURE FILES: allImport</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 36 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TEST CASE EXECUTED : 0</t>
+  </si>
+  <si>
+    <t>TOTAL FAILED : 0</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 0 sec</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TOTAL PASSED : 1</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 30 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 27 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 33 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 29 sec</t>
   </si>
 </sst>
 </file>
@@ -97,13 +140,58 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -171,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -182,6 +270,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -267,6 +382,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>147996</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="9001125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -446,4 +604,373 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.60546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="107.03515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90234375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.171875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.765625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.03515625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.19921875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="1.0390625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="32">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>36.571</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>30.453</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>27.879</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>33.736</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>29.811</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s" s="27">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>27.823</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s" s="30">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/reports/Automation_Report.xlsx
+++ b/reports/Automation_Report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="56">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -133,6 +133,54 @@
   </si>
   <si>
     <t>TOTAL TIME EXECUTED : 29 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 245 sec</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_02</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_02 |Verify price breakup for P1 &amp; P2 with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_02"</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 73 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 369 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 381 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 281 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 345 sec</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_03</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_03 |Verify price breakup for P1 &amp; CP &amp; AP with Gift Wrap, Coupon, Gift Card Amount, and Thread.| "TD_UI_Zlaata_Calculate_03"</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 222 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 408 sec</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_04</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Calculate_04 |Verify price calculation for Acessories product shipping charge with gift card.| "TD_UI_Zlaata_Calculate_04"</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 41 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 146 sec</t>
   </si>
 </sst>
 </file>
@@ -140,13 +188,68 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -259,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -297,6 +400,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -422,6 +558,272 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -608,14 +1010,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.60546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="107.03515625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.13671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="138.80078125"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.90234375"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.171875"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="6.765625"/>
@@ -632,38 +1034,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="32">
+      <c r="A1" t="s" s="65">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="32">
+      <c r="A2" t="s" s="65">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="32">
-        <v>29</v>
+      <c r="A3" t="s" s="65">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="32">
+      <c r="A4" t="s" s="65">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="32">
-        <v>35</v>
+      <c r="A5" t="s" s="65">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="32">
-        <v>32</v>
+      <c r="A6" t="s" s="65">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="32">
-        <v>37</v>
+      <c r="A7" t="s" s="65">
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="8">
         <v>1</v>
@@ -966,6 +1368,523 @@
         <v>0.0</v>
       </c>
       <c r="O13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>33.74</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>245.258</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="37">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>73.955</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="40">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>369.346</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="43">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>381.742</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="46">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>281.772</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>345.259</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s" s="51">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>222.398</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s" s="55">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>408.843</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s" s="57">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O22" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>41.104</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="61">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O23" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>146.872</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s" s="64">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O24" t="s" s="0">
         <v>13</v>
       </c>
     </row>

--- a/reports/Automation_Report.xlsx
+++ b/reports/Automation_Report.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="2026-01-07" r:id="rId3" sheetId="1"/>
     <sheet name="2026-01-12" r:id="rId4" sheetId="2"/>
+    <sheet name="2026-01-13" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="59">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -181,6 +182,15 @@
   </si>
   <si>
     <t>TOTAL TIME EXECUTED : 146 sec</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_09</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_09| Verify that uploaded track inventory product count for two Product  | "TD_UI_Zlaata_ADI_09"</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 53 sec</t>
   </si>
 </sst>
 </file>
@@ -188,13 +198,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -362,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -433,6 +453,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1892,4 +1918,137 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="20.4765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="106.1171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.90234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.1796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.03515625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.19921875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="1.0390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="69">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="69">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="69">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="69">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="66">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="66">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="66">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s" s="66">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s" s="66">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>53.165</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s" s="67">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/reports/Automation_Report.xlsx
+++ b/reports/Automation_Report.xlsx
@@ -9,12 +9,13 @@
     <sheet name="2026-01-07" r:id="rId3" sheetId="1"/>
     <sheet name="2026-01-12" r:id="rId4" sheetId="2"/>
     <sheet name="2026-01-13" r:id="rId5" sheetId="3"/>
+    <sheet name="2026-01-14" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="69">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -191,6 +192,36 @@
   </si>
   <si>
     <t>TOTAL TIME EXECUTED : 53 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 346 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 325 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 341 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 28 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 39 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 37 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 324 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 34 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 35 sec</t>
+  </si>
+  <si>
+    <t>TOTAL TIME EXECUTED : 344 sec</t>
   </si>
 </sst>
 </file>
@@ -198,13 +229,88 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="41">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -382,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -459,6 +565,51 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -853,6 +1004,206 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>147996</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>71145</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -1921,63 +2272,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.4765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="106.1171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.90234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.1796875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.03515625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.19921875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.13671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="133.8359375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90234375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.171875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.765625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.03515625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.19921875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="1.0390625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="69">
+      <c r="A1" t="s" s="78">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="69">
+      <c r="A2" t="s" s="78">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="69">
-        <v>29</v>
+      <c r="A3" t="s" s="78">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="69">
+      <c r="A4" t="s" s="78">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="69">
-        <v>35</v>
+      <c r="A5" t="s" s="78">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="69">
-        <v>32</v>
+      <c r="A6" t="s" s="78">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="69">
-        <v>58</v>
+      <c r="A7" t="s" s="78">
+        <v>61</v>
       </c>
       <c r="B7" t="s" s="66">
         <v>1</v>
@@ -2048,7 +2399,753 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>346.607</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="70">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>325.794</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="74">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>341.53</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="77">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.13671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="133.8359375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90234375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.171875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.765625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.03515625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.19921875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="2.15234375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="1.0390625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="112">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="112">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="112">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="112">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="112">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="79">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="79">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="79">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s" s="79">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s" s="79">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s" s="79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>28.407</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="81">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>39.672</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>37.423</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="86">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>324.574</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="89">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>34.255</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="92">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>33.587</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="95">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>36.55</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="98">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>35.129</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="102">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>37.057</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="104">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>35.989</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="107">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>344.669</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="111">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>